--- a/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
+++ b/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CombatLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombatLog!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombatLog!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Time(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sync</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -64,10 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -105,13 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -392,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -402,47 +418,58 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="48.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="82.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="75.375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="48.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="82.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="75.375" customWidth="1"/>
+    <col min="11" max="12" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>

--- a/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
+++ b/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
@@ -80,15 +80,14 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="6"/>
@@ -96,6 +95,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,21 +122,56 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="45" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,56 +456,56 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.0625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="48.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="75.375" customWidth="1"/>
     <col min="11" max="12" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -472,6 +513,6 @@
   <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
+++ b/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CombatLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombatLog!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombatLog!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Time(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sync</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -64,18 +76,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="6"/>
@@ -83,6 +95,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,18 +122,56 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="45" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,59 +449,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="48.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="82.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="75.375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.0625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="82.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="75.375" customWidth="1"/>
+    <col min="11" max="12" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
+++ b/ACT.SpecialSpellTimer.Core/resources/CombatLogBase.xlsx
@@ -10,9 +10,9 @@
     <sheet name="CombatLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombatLog!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombatLog!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,10 +84,13 @@
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -97,19 +100,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="0"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,26 +156,26 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="45" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,26 +457,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.0625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.0625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="82.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="75.375" customWidth="1"/>
-    <col min="11" max="12" width="64.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="82.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="64.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27" style="6" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="13" customFormat="1">
@@ -476,41 +485,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
